--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABE/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABE/20/seed4/result_data_RandomForest.xlsx
@@ -542,7 +542,7 @@
         <v>-8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>16.5233</v>
+        <v>16.47470000000001</v>
       </c>
     </row>
     <row r="7">
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.6175</v>
+        <v>5.692599999999998</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.81060000000001</v>
+        <v>-21.7957</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.594399999999997</v>
+        <v>5.339999999999995</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-22.23800000000001</v>
+        <v>-22.20470000000001</v>
       </c>
       <c r="B13" t="n">
         <v>4.02</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.693200000000003</v>
+        <v>6.365500000000003</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -695,12 +695,12 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.6038</v>
+        <v>16.6362</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.53229999999999</v>
+        <v>-21.50759999999999</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.23590000000002</v>
+        <v>-22.19090000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -754,7 +754,7 @@
         <v>-18.24</v>
       </c>
       <c r="B19" t="n">
-        <v>9.072700000000001</v>
+        <v>8.897400000000001</v>
       </c>
       <c r="C19" t="n">
         <v>-12.15</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-19.62719999999999</v>
+        <v>-19.96579999999999</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -870,10 +870,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.03779999999997</v>
+        <v>-21.05159999999997</v>
       </c>
       <c r="B26" t="n">
-        <v>4.120300000000003</v>
+        <v>4.381900000000003</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.64779999999999</v>
+        <v>-21.63479999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>4.448500000000003</v>
+        <v>4.593400000000004</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -916,15 +916,15 @@
         <v>-7.75</v>
       </c>
       <c r="E28" t="n">
-        <v>16.45580000000001</v>
+        <v>16.40300000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.69289999999999</v>
+        <v>-21.69679999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>5.467400000000002</v>
+        <v>5.183900000000001</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -1001,7 +1001,7 @@
         <v>-6.63</v>
       </c>
       <c r="E33" t="n">
-        <v>17.11780000000001</v>
+        <v>17.12770000000001</v>
       </c>
     </row>
     <row r="34">
@@ -1023,7 +1023,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-19.48109999999999</v>
+        <v>-19.5975</v>
       </c>
       <c r="B35" t="n">
         <v>10.18</v>
@@ -1035,12 +1035,12 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.63510000000001</v>
+        <v>16.533</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-19.692</v>
+        <v>-19.73719999999999</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.412700000000006</v>
+        <v>8.212000000000007</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1077,7 +1077,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>4.671799999999998</v>
+        <v>4.410999999999998</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1086,7 +1086,7 @@
         <v>-9.09</v>
       </c>
       <c r="E38" t="n">
-        <v>16.20879999999999</v>
+        <v>16.1738</v>
       </c>
     </row>
     <row r="39">
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.19590000000001</v>
+        <v>17.16840000000001</v>
       </c>
     </row>
     <row r="44">
@@ -1188,12 +1188,12 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.6866</v>
+        <v>16.54099999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-21.5165</v>
+        <v>-21.50979999999999</v>
       </c>
       <c r="B45" t="n">
         <v>5.73</v>
@@ -1205,7 +1205,7 @@
         <v>-7.87</v>
       </c>
       <c r="E45" t="n">
-        <v>16.64380000000001</v>
+        <v>16.5707</v>
       </c>
     </row>
     <row r="46">
@@ -1230,7 +1230,7 @@
         <v>-21.83</v>
       </c>
       <c r="B47" t="n">
-        <v>6.040900000000005</v>
+        <v>6.017900000000003</v>
       </c>
       <c r="C47" t="n">
         <v>-11.84</v>
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.43059999999999</v>
+        <v>16.38359999999999</v>
       </c>
     </row>
     <row r="48">
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.723799999999999</v>
+        <v>5.4177</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.38950000000001</v>
+        <v>17.26710000000001</v>
       </c>
     </row>
     <row r="52">
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.599299999999999</v>
+        <v>5.3749</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1358,15 +1358,15 @@
         <v>-8.01</v>
       </c>
       <c r="E54" t="n">
-        <v>16.587</v>
+        <v>16.54860000000001</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.3969</v>
+        <v>-22.09400000000002</v>
       </c>
       <c r="B55" t="n">
-        <v>5.388499999999998</v>
+        <v>5.343799999999999</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.47880000000001</v>
+        <v>-22.1612</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.40260000000001</v>
+        <v>16.55950000000001</v>
       </c>
     </row>
     <row r="58">
@@ -1494,7 +1494,7 @@
         <v>-8.5</v>
       </c>
       <c r="E62" t="n">
-        <v>16.39589999999999</v>
+        <v>16.297</v>
       </c>
     </row>
     <row r="63">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>18.46550000000002</v>
+        <v>18.33660000000002</v>
       </c>
     </row>
     <row r="64">
@@ -1579,7 +1579,7 @@
         <v>-6.43</v>
       </c>
       <c r="E67" t="n">
-        <v>17.25130000000001</v>
+        <v>17.27800000000001</v>
       </c>
     </row>
     <row r="68">
@@ -1601,10 +1601,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.637</v>
+        <v>-21.67969999999999</v>
       </c>
       <c r="B69" t="n">
-        <v>5.553299999999997</v>
+        <v>5.402399999999997</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1621,7 +1621,7 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>6.843800000000001</v>
+        <v>6.5144</v>
       </c>
       <c r="C70" t="n">
         <v>-9.9</v>
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.63870000000001</v>
+        <v>17.87160000000002</v>
       </c>
     </row>
     <row r="71">
@@ -1720,10 +1720,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-22.00629999999999</v>
+        <v>-21.9247</v>
       </c>
       <c r="B76" t="n">
-        <v>5.246399999999994</v>
+        <v>5.267199999999995</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.93249999999998</v>
+        <v>-19.95759999999997</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>6.067900000000004</v>
+        <v>5.942400000000001</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1817,12 +1817,12 @@
         <v>-8.390000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>16.5097</v>
+        <v>16.60129999999999</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-22.03510000000001</v>
+        <v>-22.05260000000002</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.79479999999998</v>
+        <v>-21.72499999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>5.474400000000003</v>
+        <v>5.572400000000004</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1936,7 +1936,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>16.52</v>
+        <v>16.4373</v>
       </c>
     </row>
     <row r="89">
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-20.88529999999998</v>
+        <v>-21.10949999999999</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2029,7 +2029,7 @@
         <v>-20.95</v>
       </c>
       <c r="B94" t="n">
-        <v>6.233499999999998</v>
+        <v>6.387799999999996</v>
       </c>
       <c r="C94" t="n">
         <v>-10.65</v>
@@ -2072,12 +2072,12 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>16.29199999999999</v>
+        <v>15.94819999999999</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-21.89070000000001</v>
+        <v>-21.9468</v>
       </c>
       <c r="B97" t="n">
         <v>5.08</v>
@@ -2123,7 +2123,7 @@
         <v>-7.98</v>
       </c>
       <c r="E99" t="n">
-        <v>16.5458</v>
+        <v>16.5545</v>
       </c>
     </row>
     <row r="100">
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>4.716999999999999</v>
+        <v>4.930700000000001</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.335100000000006</v>
+        <v>8.354800000000006</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
